--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.031229095664</v>
+        <v>3.0315905</v>
       </c>
       <c r="H2">
-        <v>3.031229095664</v>
+        <v>6.063181</v>
       </c>
       <c r="I2">
-        <v>0.191219628291143</v>
+        <v>0.180036816325923</v>
       </c>
       <c r="J2">
-        <v>0.191219628291143</v>
+        <v>0.1479427771590296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N2">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O2">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P2">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q2">
-        <v>194.6087742331301</v>
+        <v>194.6322057787655</v>
       </c>
       <c r="R2">
-        <v>194.6087742331301</v>
+        <v>778.5288231150619</v>
       </c>
       <c r="S2">
-        <v>0.08047944257405998</v>
+        <v>0.07327759323826503</v>
       </c>
       <c r="T2">
-        <v>0.08047944257405998</v>
+        <v>0.04707263640160515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.031229095664</v>
+        <v>3.0315905</v>
       </c>
       <c r="H3">
-        <v>3.031229095664</v>
+        <v>6.063181</v>
       </c>
       <c r="I3">
-        <v>0.191219628291143</v>
+        <v>0.180036816325923</v>
       </c>
       <c r="J3">
-        <v>0.191219628291143</v>
+        <v>0.1479427771590296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N3">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P3">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q3">
-        <v>44.42752379565493</v>
+        <v>47.76980427033033</v>
       </c>
       <c r="R3">
-        <v>44.42752379565493</v>
+        <v>286.618825621982</v>
       </c>
       <c r="S3">
-        <v>0.01837277051926162</v>
+        <v>0.01798497978475207</v>
       </c>
       <c r="T3">
-        <v>0.01837277051926162</v>
+        <v>0.01732999904919975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.031229095664</v>
+        <v>3.0315905</v>
       </c>
       <c r="H4">
-        <v>3.031229095664</v>
+        <v>6.063181</v>
       </c>
       <c r="I4">
-        <v>0.191219628291143</v>
+        <v>0.180036816325923</v>
       </c>
       <c r="J4">
-        <v>0.191219628291143</v>
+        <v>0.1479427771590296</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N4">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O4">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P4">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q4">
-        <v>69.53234030917319</v>
+        <v>74.50969059038783</v>
       </c>
       <c r="R4">
-        <v>69.53234030917319</v>
+        <v>447.058143542327</v>
       </c>
       <c r="S4">
-        <v>0.02875473632164448</v>
+        <v>0.02805235021380568</v>
       </c>
       <c r="T4">
-        <v>0.02875473632164448</v>
+        <v>0.02703073388746502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.031229095664</v>
+        <v>3.0315905</v>
       </c>
       <c r="H5">
-        <v>3.031229095664</v>
+        <v>6.063181</v>
       </c>
       <c r="I5">
-        <v>0.191219628291143</v>
+        <v>0.180036816325923</v>
       </c>
       <c r="J5">
-        <v>0.191219628291143</v>
+        <v>0.1479427771590296</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N5">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O5">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P5">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q5">
-        <v>40.14819197138594</v>
+        <v>43.43058773466366</v>
       </c>
       <c r="R5">
-        <v>40.14819197138594</v>
+        <v>260.583526407982</v>
       </c>
       <c r="S5">
-        <v>0.01660307518479518</v>
+        <v>0.01635129669000894</v>
       </c>
       <c r="T5">
-        <v>0.01660307518479518</v>
+        <v>0.01575581176528658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.031229095664</v>
+        <v>3.0315905</v>
       </c>
       <c r="H6">
-        <v>3.031229095664</v>
+        <v>6.063181</v>
       </c>
       <c r="I6">
-        <v>0.191219628291143</v>
+        <v>0.180036816325923</v>
       </c>
       <c r="J6">
-        <v>0.191219628291143</v>
+        <v>0.1479427771590296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N6">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O6">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P6">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q6">
-        <v>99.85471584857839</v>
+        <v>101.3044911407623</v>
       </c>
       <c r="R6">
-        <v>99.85471584857839</v>
+        <v>607.826946844574</v>
       </c>
       <c r="S6">
-        <v>0.04129439641944289</v>
+        <v>0.03814039544647702</v>
       </c>
       <c r="T6">
-        <v>0.04129439641944289</v>
+        <v>0.03675139059004848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.031229095664</v>
+        <v>3.0315905</v>
       </c>
       <c r="H7">
-        <v>3.031229095664</v>
+        <v>6.063181</v>
       </c>
       <c r="I7">
-        <v>0.191219628291143</v>
+        <v>0.180036816325923</v>
       </c>
       <c r="J7">
-        <v>0.191219628291143</v>
+        <v>0.1479427771590296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N7">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O7">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P7">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q7">
-        <v>13.82004454934905</v>
+        <v>16.54800192344575</v>
       </c>
       <c r="R7">
-        <v>13.82004454934905</v>
+        <v>66.192007693783</v>
       </c>
       <c r="S7">
-        <v>0.005715207271938828</v>
+        <v>0.00623020095261429</v>
       </c>
       <c r="T7">
-        <v>0.005715207271938828</v>
+        <v>0.004002205465424619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.2998628461802</v>
+        <v>2.309622333333333</v>
       </c>
       <c r="H8">
-        <v>2.2998628461802</v>
+        <v>6.928866999999999</v>
       </c>
       <c r="I8">
-        <v>0.145082705624681</v>
+        <v>0.1371613520389983</v>
       </c>
       <c r="J8">
-        <v>0.145082705624681</v>
+        <v>0.1690656812893354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N8">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O8">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P8">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q8">
-        <v>147.654128168562</v>
+        <v>148.2808740997723</v>
       </c>
       <c r="R8">
-        <v>147.654128168562</v>
+        <v>889.6852445986337</v>
       </c>
       <c r="S8">
-        <v>0.06106159383404462</v>
+        <v>0.0558266579460559</v>
       </c>
       <c r="T8">
-        <v>0.06106159383404462</v>
+        <v>0.05379355110231421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.2998628461802</v>
+        <v>2.309622333333333</v>
       </c>
       <c r="H9">
-        <v>2.2998628461802</v>
+        <v>6.928866999999999</v>
       </c>
       <c r="I9">
-        <v>0.145082705624681</v>
+        <v>0.1371613520389983</v>
       </c>
       <c r="J9">
-        <v>0.145082705624681</v>
+        <v>0.1690656812893354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N9">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P9">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q9">
-        <v>33.70817846515533</v>
+        <v>36.39350591767488</v>
       </c>
       <c r="R9">
-        <v>33.70817846515533</v>
+        <v>327.5415532590739</v>
       </c>
       <c r="S9">
-        <v>0.01393984122120227</v>
+        <v>0.01370188716959362</v>
       </c>
       <c r="T9">
-        <v>0.01393984122120227</v>
+        <v>0.01980433348798783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.2998628461802</v>
+        <v>2.309622333333333</v>
       </c>
       <c r="H10">
-        <v>2.2998628461802</v>
+        <v>6.928866999999999</v>
       </c>
       <c r="I10">
-        <v>0.145082705624681</v>
+        <v>0.1371613520389983</v>
       </c>
       <c r="J10">
-        <v>0.145082705624681</v>
+        <v>0.1690656812893354</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N10">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O10">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P10">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q10">
-        <v>52.75577695983928</v>
+        <v>56.76533339094321</v>
       </c>
       <c r="R10">
-        <v>52.75577695983928</v>
+        <v>510.8880005184889</v>
       </c>
       <c r="S10">
-        <v>0.02181687613531305</v>
+        <v>0.02137173030338158</v>
       </c>
       <c r="T10">
-        <v>0.02181687613531305</v>
+        <v>0.03089011527424928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.2998628461802</v>
+        <v>2.309622333333333</v>
       </c>
       <c r="H11">
-        <v>2.2998628461802</v>
+        <v>6.928866999999999</v>
       </c>
       <c r="I11">
-        <v>0.145082705624681</v>
+        <v>0.1371613520389983</v>
       </c>
       <c r="J11">
-        <v>0.145082705624681</v>
+        <v>0.1690656812893354</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N11">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O11">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P11">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q11">
-        <v>30.46135153175362</v>
+        <v>33.08766648456377</v>
       </c>
       <c r="R11">
-        <v>30.46135153175362</v>
+        <v>297.7889983610739</v>
       </c>
       <c r="S11">
-        <v>0.01259713289387069</v>
+        <v>0.01245726294966423</v>
       </c>
       <c r="T11">
-        <v>0.01259713289387069</v>
+        <v>0.01800538763376946</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.2998628461802</v>
+        <v>2.309622333333333</v>
       </c>
       <c r="H12">
-        <v>2.2998628461802</v>
+        <v>6.928866999999999</v>
       </c>
       <c r="I12">
-        <v>0.145082705624681</v>
+        <v>0.1371613520389983</v>
       </c>
       <c r="J12">
-        <v>0.145082705624681</v>
+        <v>0.1690656812893354</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N12">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O12">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P12">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q12">
-        <v>75.76205682524323</v>
+        <v>77.17899736315754</v>
       </c>
       <c r="R12">
-        <v>75.76205682524323</v>
+        <v>694.6109762684179</v>
       </c>
       <c r="S12">
-        <v>0.03133100306287131</v>
+        <v>0.02905732457116101</v>
       </c>
       <c r="T12">
-        <v>0.03133100306287131</v>
+        <v>0.04199866331938588</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.2998628461802</v>
+        <v>2.309622333333333</v>
       </c>
       <c r="H13">
-        <v>2.2998628461802</v>
+        <v>6.928866999999999</v>
       </c>
       <c r="I13">
-        <v>0.145082705624681</v>
+        <v>0.1371613520389983</v>
       </c>
       <c r="J13">
-        <v>0.145082705624681</v>
+        <v>0.1690656812893354</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N13">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O13">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P13">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q13">
-        <v>10.48558389633715</v>
+        <v>12.60712316338016</v>
       </c>
       <c r="R13">
-        <v>10.48558389633715</v>
+        <v>75.642738980281</v>
       </c>
       <c r="S13">
-        <v>0.004336258477379037</v>
+        <v>0.004746489099142041</v>
       </c>
       <c r="T13">
-        <v>0.004336258477379037</v>
+        <v>0.004573630471628717</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.943146894111917</v>
+        <v>1.088999333333333</v>
       </c>
       <c r="H14">
-        <v>0.943146894111917</v>
+        <v>3.266998</v>
       </c>
       <c r="I14">
-        <v>0.05949672321831581</v>
+        <v>0.06467231407222906</v>
       </c>
       <c r="J14">
-        <v>0.05949672321831581</v>
+        <v>0.07971537664684517</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N14">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O14">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P14">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q14">
-        <v>60.55123357302624</v>
+        <v>69.91522843809933</v>
       </c>
       <c r="R14">
-        <v>60.55123357302624</v>
+        <v>419.4913706285959</v>
       </c>
       <c r="S14">
-        <v>0.02504064651931432</v>
+        <v>0.02632256902267698</v>
       </c>
       <c r="T14">
-        <v>0.02504064651931432</v>
+        <v>0.02536394822763351</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.943146894111917</v>
+        <v>1.088999333333333</v>
       </c>
       <c r="H15">
-        <v>0.943146894111917</v>
+        <v>3.266998</v>
       </c>
       <c r="I15">
-        <v>0.05949672321831581</v>
+        <v>0.06467231407222906</v>
       </c>
       <c r="J15">
-        <v>0.05949672321831581</v>
+        <v>0.07971537664684517</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N15">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P15">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q15">
-        <v>13.82333032527736</v>
+        <v>17.15973348110622</v>
       </c>
       <c r="R15">
-        <v>13.82333032527736</v>
+        <v>154.437601329956</v>
       </c>
       <c r="S15">
-        <v>0.00571656608741966</v>
+        <v>0.006460513382532528</v>
       </c>
       <c r="T15">
-        <v>0.00571656608741966</v>
+        <v>0.009337849593099313</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.943146894111917</v>
+        <v>1.088999333333333</v>
       </c>
       <c r="H16">
-        <v>0.943146894111917</v>
+        <v>3.266998</v>
       </c>
       <c r="I16">
-        <v>0.05949672321831581</v>
+        <v>0.06467231407222906</v>
       </c>
       <c r="J16">
-        <v>0.05949672321831581</v>
+        <v>0.07971537664684517</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N16">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O16">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P16">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q16">
-        <v>21.63452801925689</v>
+        <v>26.76515953582956</v>
       </c>
       <c r="R16">
-        <v>21.63452801925689</v>
+        <v>240.886435822466</v>
       </c>
       <c r="S16">
-        <v>0.008946846113201951</v>
+        <v>0.01007688560881411</v>
       </c>
       <c r="T16">
-        <v>0.008946846113201951</v>
+        <v>0.01456485523834443</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.943146894111917</v>
+        <v>1.088999333333333</v>
       </c>
       <c r="H17">
-        <v>0.943146894111917</v>
+        <v>3.266998</v>
       </c>
       <c r="I17">
-        <v>0.05949672321831581</v>
+        <v>0.06467231407222906</v>
       </c>
       <c r="J17">
-        <v>0.05949672321831581</v>
+        <v>0.07971537664684517</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N17">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O17">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P17">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q17">
-        <v>12.49184451818119</v>
+        <v>15.60101243532844</v>
       </c>
       <c r="R17">
-        <v>12.49184451818119</v>
+        <v>140.409111917956</v>
       </c>
       <c r="S17">
-        <v>0.005165937083292621</v>
+        <v>0.005873666378937153</v>
       </c>
       <c r="T17">
-        <v>0.005165937083292621</v>
+        <v>0.008489636962110768</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.943146894111917</v>
+        <v>1.088999333333333</v>
       </c>
       <c r="H18">
-        <v>0.943146894111917</v>
+        <v>3.266998</v>
       </c>
       <c r="I18">
-        <v>0.05949672321831581</v>
+        <v>0.06467231407222906</v>
       </c>
       <c r="J18">
-        <v>0.05949672321831581</v>
+        <v>0.07971537664684517</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N18">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O18">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P18">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q18">
-        <v>31.06913471163578</v>
+        <v>36.39031172447689</v>
       </c>
       <c r="R18">
-        <v>31.06913471163578</v>
+        <v>327.512805520292</v>
       </c>
       <c r="S18">
-        <v>0.01284847845480727</v>
+        <v>0.01370068457935964</v>
       </c>
       <c r="T18">
-        <v>0.01284847845480727</v>
+        <v>0.01980259529690887</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.943146894111917</v>
+        <v>1.088999333333333</v>
       </c>
       <c r="H19">
-        <v>0.943146894111917</v>
+        <v>3.266998</v>
       </c>
       <c r="I19">
-        <v>0.05949672321831581</v>
+        <v>0.06467231407222906</v>
       </c>
       <c r="J19">
-        <v>0.05949672321831581</v>
+        <v>0.07971537664684517</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N19">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O19">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P19">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q19">
-        <v>4.300015499274452</v>
+        <v>5.944326274485667</v>
       </c>
       <c r="R19">
-        <v>4.300015499274452</v>
+        <v>35.665957646914</v>
       </c>
       <c r="S19">
-        <v>0.001778248960279985</v>
+        <v>0.002237995099908665</v>
       </c>
       <c r="T19">
-        <v>0.001778248960279985</v>
+        <v>0.002156491328748276</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.47173736620961</v>
+        <v>1.572783</v>
       </c>
       <c r="H20">
-        <v>1.47173736620961</v>
+        <v>4.718349</v>
       </c>
       <c r="I20">
-        <v>0.09284190116522367</v>
+        <v>0.0934027349972017</v>
       </c>
       <c r="J20">
-        <v>0.09284190116522367</v>
+        <v>0.1151286188991439</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N20">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O20">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P20">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q20">
-        <v>94.487416091659</v>
+        <v>100.974793429833</v>
       </c>
       <c r="R20">
-        <v>94.487416091659</v>
+        <v>605.8487605789978</v>
       </c>
       <c r="S20">
-        <v>0.03907477762647265</v>
+        <v>0.03801626668445432</v>
       </c>
       <c r="T20">
-        <v>0.03907477762647265</v>
+        <v>0.03663178237510594</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.47173736620961</v>
+        <v>1.572783</v>
       </c>
       <c r="H21">
-        <v>1.47173736620961</v>
+        <v>4.718349</v>
       </c>
       <c r="I21">
-        <v>0.09284190116522367</v>
+        <v>0.0934027349972017</v>
       </c>
       <c r="J21">
-        <v>0.09284190116522367</v>
+        <v>0.1151286188991439</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N21">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P21">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q21">
-        <v>21.5706714321799</v>
+        <v>24.782877525742</v>
       </c>
       <c r="R21">
-        <v>21.5706714321799</v>
+        <v>223.045897731678</v>
       </c>
       <c r="S21">
-        <v>0.008920438554997604</v>
+        <v>0.009330571019008575</v>
       </c>
       <c r="T21">
-        <v>0.008920438554997604</v>
+        <v>0.01348615251363807</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.47173736620961</v>
+        <v>1.572783</v>
       </c>
       <c r="H22">
-        <v>1.47173736620961</v>
+        <v>4.718349</v>
       </c>
       <c r="I22">
-        <v>0.09284190116522367</v>
+        <v>0.0934027349972017</v>
       </c>
       <c r="J22">
-        <v>0.09284190116522367</v>
+        <v>0.1151286188991439</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N22">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O22">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P22">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q22">
-        <v>33.75968630658595</v>
+        <v>38.655476290687</v>
       </c>
       <c r="R22">
-        <v>33.75968630658595</v>
+        <v>347.899286616183</v>
       </c>
       <c r="S22">
-        <v>0.01396114202011467</v>
+        <v>0.01455350236990119</v>
       </c>
       <c r="T22">
-        <v>0.01396114202011467</v>
+        <v>0.02103523483913587</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.47173736620961</v>
+        <v>1.572783</v>
       </c>
       <c r="H23">
-        <v>1.47173736620961</v>
+        <v>4.718349</v>
       </c>
       <c r="I23">
-        <v>0.09284190116522367</v>
+        <v>0.0934027349972017</v>
       </c>
       <c r="J23">
-        <v>0.09284190116522367</v>
+        <v>0.1151286188991439</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N23">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O23">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P23">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q23">
-        <v>19.49294904649958</v>
+        <v>22.531700791742</v>
       </c>
       <c r="R23">
-        <v>19.49294904649958</v>
+        <v>202.785307125678</v>
       </c>
       <c r="S23">
-        <v>0.008061207309735838</v>
+        <v>0.008483019544362053</v>
       </c>
       <c r="T23">
-        <v>0.008061207309735838</v>
+        <v>0.01226112476057175</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.47173736620961</v>
+        <v>1.572783</v>
       </c>
       <c r="H24">
-        <v>1.47173736620961</v>
+        <v>4.718349</v>
       </c>
       <c r="I24">
-        <v>0.09284190116522367</v>
+        <v>0.0934027349972017</v>
       </c>
       <c r="J24">
-        <v>0.09284190116522367</v>
+        <v>0.1151286188991439</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N24">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O24">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P24">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q24">
-        <v>48.48195628526182</v>
+        <v>52.55656444689399</v>
       </c>
       <c r="R24">
-        <v>48.48195628526182</v>
+        <v>473.009080022046</v>
       </c>
       <c r="S24">
-        <v>0.02004945990802902</v>
+        <v>0.01978715976695945</v>
       </c>
       <c r="T24">
-        <v>0.02004945990802902</v>
+        <v>0.02859982029881091</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.47173736620961</v>
+        <v>1.572783</v>
       </c>
       <c r="H25">
-        <v>1.47173736620961</v>
+        <v>4.718349</v>
       </c>
       <c r="I25">
-        <v>0.09284190116522367</v>
+        <v>0.0934027349972017</v>
       </c>
       <c r="J25">
-        <v>0.09284190116522367</v>
+        <v>0.1151286188991439</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N25">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O25">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P25">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q25">
-        <v>6.709976489422361</v>
+        <v>8.5850698203345</v>
       </c>
       <c r="R25">
-        <v>6.709976489422361</v>
+        <v>51.510418922007</v>
       </c>
       <c r="S25">
-        <v>0.002774875745873884</v>
+        <v>0.003232215612516123</v>
       </c>
       <c r="T25">
-        <v>0.002774875745873884</v>
+        <v>0.003114504111881335</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.16249644655102</v>
+        <v>2.334429666666667</v>
       </c>
       <c r="H26">
-        <v>2.16249644655102</v>
+        <v>7.003289000000001</v>
       </c>
       <c r="I26">
-        <v>0.1364171936993837</v>
+        <v>0.1386345831085869</v>
       </c>
       <c r="J26">
-        <v>0.1364171936993837</v>
+        <v>0.1708815923369735</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N26">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O26">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P26">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q26">
-        <v>138.8350301033935</v>
+        <v>149.8735384144796</v>
       </c>
       <c r="R26">
-        <v>138.8350301033935</v>
+        <v>899.241230486878</v>
       </c>
       <c r="S26">
-        <v>0.05741450187178556</v>
+        <v>0.05642628434062538</v>
       </c>
       <c r="T26">
-        <v>0.05741450187178556</v>
+        <v>0.05437134017809478</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.16249644655102</v>
+        <v>2.334429666666667</v>
       </c>
       <c r="H27">
-        <v>2.16249644655102</v>
+        <v>7.003289000000001</v>
       </c>
       <c r="I27">
-        <v>0.1364171936993837</v>
+        <v>0.1386345831085869</v>
       </c>
       <c r="J27">
-        <v>0.1364171936993837</v>
+        <v>0.1708815923369735</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N27">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O27">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P27">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q27">
-        <v>31.69485357427902</v>
+        <v>36.78440352003977</v>
       </c>
       <c r="R27">
-        <v>31.69485357427902</v>
+        <v>331.059631680358</v>
       </c>
       <c r="S27">
-        <v>0.0131072412237114</v>
+        <v>0.01384905724039098</v>
       </c>
       <c r="T27">
-        <v>0.0131072412237114</v>
+        <v>0.02001704908879862</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.16249644655102</v>
+        <v>2.334429666666667</v>
       </c>
       <c r="H28">
-        <v>2.16249644655102</v>
+        <v>7.003289000000001</v>
       </c>
       <c r="I28">
-        <v>0.1364171936993837</v>
+        <v>0.1386345831085869</v>
       </c>
       <c r="J28">
-        <v>0.1364171936993837</v>
+        <v>0.1708815923369735</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N28">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O28">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P28">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q28">
-        <v>49.60477551962324</v>
+        <v>57.37504196835145</v>
       </c>
       <c r="R28">
-        <v>49.60477551962324</v>
+        <v>516.375377715163</v>
       </c>
       <c r="S28">
-        <v>0.02051379594040436</v>
+        <v>0.02160128109612133</v>
       </c>
       <c r="T28">
-        <v>0.02051379594040436</v>
+        <v>0.0312219017205673</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.16249644655102</v>
+        <v>2.334429666666667</v>
       </c>
       <c r="H29">
-        <v>2.16249644655102</v>
+        <v>7.003289000000001</v>
       </c>
       <c r="I29">
-        <v>0.1364171936993837</v>
+        <v>0.1386345831085869</v>
       </c>
       <c r="J29">
-        <v>0.1364171936993837</v>
+        <v>0.1708815923369735</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N29">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O29">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P29">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q29">
-        <v>28.64195339037943</v>
+        <v>33.44305652381755</v>
       </c>
       <c r="R29">
-        <v>28.64195339037943</v>
+        <v>300.987508714358</v>
       </c>
       <c r="S29">
-        <v>0.01184473029118708</v>
+        <v>0.01259106468423929</v>
       </c>
       <c r="T29">
-        <v>0.01184473029118708</v>
+        <v>0.01819878100652151</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.16249644655102</v>
+        <v>2.334429666666667</v>
       </c>
       <c r="H30">
-        <v>2.16249644655102</v>
+        <v>7.003289000000001</v>
       </c>
       <c r="I30">
-        <v>0.1364171936993837</v>
+        <v>0.1386345831085869</v>
       </c>
       <c r="J30">
-        <v>0.1364171936993837</v>
+        <v>0.1708815923369735</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N30">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O30">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P30">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q30">
-        <v>71.23693438506378</v>
+        <v>78.0079662756451</v>
       </c>
       <c r="R30">
-        <v>71.23693438506378</v>
+        <v>702.0716964808061</v>
       </c>
       <c r="S30">
-        <v>0.0294596623024144</v>
+        <v>0.02936942526659</v>
       </c>
       <c r="T30">
-        <v>0.0294596623024144</v>
+        <v>0.04244976514044196</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.16249644655102</v>
+        <v>2.334429666666667</v>
       </c>
       <c r="H31">
-        <v>2.16249644655102</v>
+        <v>7.003289000000001</v>
       </c>
       <c r="I31">
-        <v>0.1364171936993837</v>
+        <v>0.1386345831085869</v>
       </c>
       <c r="J31">
-        <v>0.1364171936993837</v>
+        <v>0.1708815923369735</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N31">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O31">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P31">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q31">
-        <v>9.859300068046336</v>
+        <v>12.74253452573783</v>
       </c>
       <c r="R31">
-        <v>9.859300068046336</v>
+        <v>76.455207154427</v>
       </c>
       <c r="S31">
-        <v>0.004077262069880919</v>
+        <v>0.004797470480619901</v>
       </c>
       <c r="T31">
-        <v>0.004077262069880919</v>
+        <v>0.004622755202549307</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.94360866089012</v>
+        <v>6.5013005</v>
       </c>
       <c r="H32">
-        <v>5.94360866089012</v>
+        <v>13.002601</v>
       </c>
       <c r="I32">
-        <v>0.3749418480012529</v>
+        <v>0.3860921994570611</v>
       </c>
       <c r="J32">
-        <v>0.3749418480012529</v>
+        <v>0.3172659536686725</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N32">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O32">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P32">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q32">
-        <v>381.5872570211881</v>
+        <v>417.3922753569755</v>
       </c>
       <c r="R32">
-        <v>381.5872570211881</v>
+        <v>1669.569101427902</v>
       </c>
       <c r="S32">
-        <v>0.1578034179571011</v>
+        <v>0.1571451202128814</v>
       </c>
       <c r="T32">
-        <v>0.1578034179571011</v>
+        <v>0.1009481176874231</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.94360866089012</v>
+        <v>6.5013005</v>
       </c>
       <c r="H33">
-        <v>5.94360866089012</v>
+        <v>13.002601</v>
       </c>
       <c r="I33">
-        <v>0.3749418480012529</v>
+        <v>0.3860921994570611</v>
       </c>
       <c r="J33">
-        <v>0.3749418480012529</v>
+        <v>0.3172659536686725</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N33">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O33">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P33">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q33">
-        <v>87.11311711525831</v>
+        <v>102.4432067548703</v>
       </c>
       <c r="R33">
-        <v>87.11311711525831</v>
+        <v>614.659240529222</v>
       </c>
       <c r="S33">
-        <v>0.03602517478439198</v>
+        <v>0.03856911349573715</v>
       </c>
       <c r="T33">
-        <v>0.03602517478439198</v>
+        <v>0.03716449549619643</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.94360866089012</v>
+        <v>6.5013005</v>
       </c>
       <c r="H34">
-        <v>5.94360866089012</v>
+        <v>13.002601</v>
       </c>
       <c r="I34">
-        <v>0.3749418480012529</v>
+        <v>0.3860921994570611</v>
       </c>
       <c r="J34">
-        <v>0.3749418480012529</v>
+        <v>0.3172659536686725</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N34">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O34">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P34">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q34">
-        <v>136.3384313857123</v>
+        <v>159.7873752045778</v>
       </c>
       <c r="R34">
-        <v>136.3384313857123</v>
+        <v>958.724251227467</v>
       </c>
       <c r="S34">
-        <v>0.05638204650628698</v>
+        <v>0.06015877093927758</v>
       </c>
       <c r="T34">
-        <v>0.05638204650628698</v>
+        <v>0.05796789630325839</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.94360866089012</v>
+        <v>6.5013005</v>
       </c>
       <c r="H35">
-        <v>5.94360866089012</v>
+        <v>13.002601</v>
       </c>
       <c r="I35">
-        <v>0.3749418480012529</v>
+        <v>0.3860921994570611</v>
       </c>
       <c r="J35">
-        <v>0.3749418480012529</v>
+        <v>0.3172659536686725</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N35">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O35">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P35">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q35">
-        <v>78.7222390618869</v>
+        <v>93.13767863920366</v>
       </c>
       <c r="R35">
-        <v>78.7222390618869</v>
+        <v>558.8260718352219</v>
       </c>
       <c r="S35">
-        <v>0.03255517097236816</v>
+        <v>0.0350656506366554</v>
       </c>
       <c r="T35">
-        <v>0.03255517097236816</v>
+        <v>0.03378862247640753</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.94360866089012</v>
+        <v>6.5013005</v>
       </c>
       <c r="H36">
-        <v>5.94360866089012</v>
+        <v>13.002601</v>
       </c>
       <c r="I36">
-        <v>0.3749418480012529</v>
+        <v>0.3860921994570611</v>
       </c>
       <c r="J36">
-        <v>0.3749418480012529</v>
+        <v>0.3172659536686725</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N36">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O36">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P36">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q36">
-        <v>195.794291760163</v>
+        <v>217.2493082115423</v>
       </c>
       <c r="R36">
-        <v>195.794291760163</v>
+        <v>1303.495849269254</v>
       </c>
       <c r="S36">
-        <v>0.08096970715803546</v>
+        <v>0.08179276587203278</v>
       </c>
       <c r="T36">
-        <v>0.08096970715803546</v>
+        <v>0.07881401990762853</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.94360866089012</v>
+        <v>6.5013005</v>
       </c>
       <c r="H37">
-        <v>5.94360866089012</v>
+        <v>13.002601</v>
       </c>
       <c r="I37">
-        <v>0.3749418480012529</v>
+        <v>0.3860921994570611</v>
       </c>
       <c r="J37">
-        <v>0.3749418480012529</v>
+        <v>0.3172659536686725</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N37">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O37">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P37">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q37">
-        <v>27.09822777661253</v>
+        <v>35.48748855721075</v>
       </c>
       <c r="R37">
-        <v>27.09822777661253</v>
+        <v>141.949954228843</v>
       </c>
       <c r="S37">
-        <v>0.01120633062306919</v>
+        <v>0.01336077830047685</v>
       </c>
       <c r="T37">
-        <v>0.01120633062306919</v>
+        <v>0.008582801797758572</v>
       </c>
     </row>
   </sheetData>
